--- a/Reports/heart/heart_multifairgan_100_05.xlsx
+++ b/Reports/heart/heart_multifairgan_100_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0078</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0243</v>
+        <v>-0.0027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0502</v>
+        <v>0.9946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.9099</v>
+        <v>1.2358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1844</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.2381</v>
+        <v>1.2387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0348</v>
+        <v>-0.0208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.1092</v>
+        <v>0.9412</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1528</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0041</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7292999999999999</v>
+        <v>0.6196</v>
       </c>
     </row>
     <row r="13">
